--- a/assessment_schedule.xlsx
+++ b/assessment_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Dropbox/Wisconsin/EMBARK Lab/Code/BAM-codebook/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenpictor/Desktop/Bam-high-codebook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D0CBD-8E12-8247-99E3-74021EEF6DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAABD42-9C7E-AB4D-807F-599B127ABDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1120" windowWidth="27640" windowHeight="16740" xr2:uid="{65510864-A106-F142-86F0-C8E6371AAB60}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{65510864-A106-F142-86F0-C8E6371AAB60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,21 +46,12 @@
     <t>Post</t>
   </si>
   <si>
-    <t>Follow-up(6wk)</t>
-  </si>
-  <si>
-    <t>Weight and Dieting History Questionnaire</t>
-  </si>
-  <si>
     <t>Goldfarb Fear of Fat Scale</t>
   </si>
   <si>
     <t>Fat Phobia Scale – Short form</t>
   </si>
   <si>
-    <t>Universal Measure of Bias – Fat</t>
-  </si>
-  <si>
     <t>Eating Pathology Symptom Inventory</t>
   </si>
   <si>
@@ -73,15 +64,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>PHQ-9</t>
-  </si>
-  <si>
-    <t>Childhood Trauma Questionnaire</t>
-  </si>
-  <si>
-    <t>Food Security Questionnaire</t>
-  </si>
-  <si>
     <t>Ideal Body Stereotype Scale - Revised</t>
   </si>
   <si>
@@ -94,19 +76,37 @@
     <t>Weight-based Approach Avoidance Task*</t>
   </si>
   <si>
-    <t>ED Fear Questionnaire (after 9/1/2022)</t>
-  </si>
-  <si>
     <t>Weight Impliciat Association Test (Weight IAT)*</t>
   </si>
   <si>
-    <t>ED100k (after 9/1/2022)</t>
-  </si>
-  <si>
-    <t>Eating Disorder Diagnostic Scale (EDDS)</t>
-  </si>
-  <si>
-    <t>ED History Questionnaire (before 9/1/2022)</t>
+    <t>Follow-up(4wk)</t>
+  </si>
+  <si>
+    <t>MMQ</t>
+  </si>
+  <si>
+    <t>Mini MMQ</t>
+  </si>
+  <si>
+    <t>ED100k Plus</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>Fat Stereotypes Questionnaire</t>
+  </si>
+  <si>
+    <t>Perception of Teasing Scale</t>
+  </si>
+  <si>
+    <t>Food Security Survey Module</t>
+  </si>
+  <si>
+    <t>Feedback Survey</t>
+  </si>
+  <si>
+    <t>Subjective Social Status Scale</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -185,20 +185,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC9C9C9"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -217,7 +208,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -541,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF68AE7-13CA-AC4E-9604-A56C12406A02}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -553,7 +543,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -562,228 +552,231 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
-        <v>11</v>
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
